--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.978183633189646</v>
+        <v>1.201762333333333</v>
       </c>
       <c r="H2">
-        <v>0.978183633189646</v>
+        <v>3.605287</v>
       </c>
       <c r="I2">
-        <v>0.05898634081320612</v>
+        <v>0.06687913555627696</v>
       </c>
       <c r="J2">
-        <v>0.05898634081320612</v>
+        <v>0.06687913555627695</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.69659256010436</v>
+        <v>3.084366333333334</v>
       </c>
       <c r="N2">
-        <v>2.69659256010436</v>
+        <v>9.253099000000001</v>
       </c>
       <c r="O2">
-        <v>0.1437666802691312</v>
+        <v>0.1521618317582404</v>
       </c>
       <c r="P2">
-        <v>0.1437666802691312</v>
+        <v>0.1521618317582404</v>
       </c>
       <c r="Q2">
-        <v>2.637762707675052</v>
+        <v>3.706675281601444</v>
       </c>
       <c r="R2">
-        <v>2.637762707675052</v>
+        <v>33.360077534413</v>
       </c>
       <c r="S2">
-        <v>0.008480270399938211</v>
+        <v>0.01017645177265077</v>
       </c>
       <c r="T2">
-        <v>0.008480270399938211</v>
+        <v>0.01017645177265076</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.978183633189646</v>
+        <v>1.201762333333333</v>
       </c>
       <c r="H3">
-        <v>0.978183633189646</v>
+        <v>3.605287</v>
       </c>
       <c r="I3">
-        <v>0.05898634081320612</v>
+        <v>0.06687913555627696</v>
       </c>
       <c r="J3">
-        <v>0.05898634081320612</v>
+        <v>0.06687913555627695</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.90573606277338</v>
+        <v>5.166526</v>
       </c>
       <c r="N3">
-        <v>4.90573606277338</v>
+        <v>15.499578</v>
       </c>
       <c r="O3">
-        <v>0.2615454030601465</v>
+        <v>0.2548815461673676</v>
       </c>
       <c r="P3">
-        <v>0.2615454030601465</v>
+        <v>0.2548815461673676</v>
       </c>
       <c r="Q3">
-        <v>4.798710725353135</v>
+        <v>6.208936340987333</v>
       </c>
       <c r="R3">
-        <v>4.798710725353135</v>
+        <v>55.88042706888599</v>
       </c>
       <c r="S3">
-        <v>0.01542760628303316</v>
+        <v>0.01704625747692085</v>
       </c>
       <c r="T3">
-        <v>0.01542760628303316</v>
+        <v>0.01704625747692084</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.978183633189646</v>
+        <v>1.201762333333333</v>
       </c>
       <c r="H4">
-        <v>0.978183633189646</v>
+        <v>3.605287</v>
       </c>
       <c r="I4">
-        <v>0.05898634081320612</v>
+        <v>0.06687913555627696</v>
       </c>
       <c r="J4">
-        <v>0.05898634081320612</v>
+        <v>0.06687913555627695</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.49334980836193</v>
+        <v>5.102146666666667</v>
       </c>
       <c r="N4">
-        <v>4.49334980836193</v>
+        <v>15.30644</v>
       </c>
       <c r="O4">
-        <v>0.2395593590197887</v>
+        <v>0.2517055040800493</v>
       </c>
       <c r="P4">
-        <v>0.2395593590197887</v>
+        <v>0.2517055040800494</v>
       </c>
       <c r="Q4">
-        <v>4.395321240735472</v>
+        <v>6.131567683142221</v>
       </c>
       <c r="R4">
-        <v>4.395321240735472</v>
+        <v>55.18410914828</v>
       </c>
       <c r="S4">
-        <v>0.01413072999613446</v>
+        <v>0.01683384652763064</v>
       </c>
       <c r="T4">
-        <v>0.01413072999613446</v>
+        <v>0.01683384652763064</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.978183633189646</v>
+        <v>1.201762333333333</v>
       </c>
       <c r="H5">
-        <v>0.978183633189646</v>
+        <v>3.605287</v>
       </c>
       <c r="I5">
-        <v>0.05898634081320612</v>
+        <v>0.06687913555627696</v>
       </c>
       <c r="J5">
-        <v>0.05898634081320612</v>
+        <v>0.06687913555627695</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.47183688370229</v>
+        <v>3.506213666666667</v>
       </c>
       <c r="N5">
-        <v>3.47183688370229</v>
+        <v>10.518641</v>
       </c>
       <c r="O5">
-        <v>0.1850982126815952</v>
+        <v>0.1729729339508125</v>
       </c>
       <c r="P5">
-        <v>0.1850982126815952</v>
+        <v>0.1729729339508125</v>
       </c>
       <c r="Q5">
-        <v>3.396094016741725</v>
+        <v>4.213635517218555</v>
       </c>
       <c r="R5">
-        <v>3.396094016741725</v>
+        <v>37.922719654967</v>
       </c>
       <c r="S5">
-        <v>0.01091826625715188</v>
+        <v>0.01156828029726333</v>
       </c>
       <c r="T5">
-        <v>0.01091826625715188</v>
+        <v>0.01156828029726333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.978183633189646</v>
+        <v>1.201762333333333</v>
       </c>
       <c r="H6">
-        <v>0.978183633189646</v>
+        <v>3.605287</v>
       </c>
       <c r="I6">
-        <v>0.05898634081320612</v>
+        <v>0.06687913555627696</v>
       </c>
       <c r="J6">
-        <v>0.05898634081320612</v>
+        <v>0.06687913555627695</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.471250230243123</v>
+        <v>0.4976016666666667</v>
       </c>
       <c r="N6">
-        <v>0.471250230243123</v>
+        <v>1.492805</v>
       </c>
       <c r="O6">
-        <v>0.02512432993418018</v>
+        <v>0.02454831005891756</v>
       </c>
       <c r="P6">
-        <v>0.02512432993418018</v>
+        <v>0.02454831005891756</v>
       </c>
       <c r="Q6">
-        <v>0.4609692623606753</v>
+        <v>0.5979989400038888</v>
       </c>
       <c r="R6">
-        <v>0.4609692623606753</v>
+        <v>5.381990460034999</v>
       </c>
       <c r="S6">
-        <v>0.001481992288200989</v>
+        <v>0.001641769756107864</v>
       </c>
       <c r="T6">
-        <v>0.001481992288200989</v>
+        <v>0.001641769756107864</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.978183633189646</v>
+        <v>1.201762333333333</v>
       </c>
       <c r="H7">
-        <v>0.978183633189646</v>
+        <v>3.605287</v>
       </c>
       <c r="I7">
-        <v>0.05898634081320612</v>
+        <v>0.06687913555627696</v>
       </c>
       <c r="J7">
-        <v>0.05898634081320612</v>
+        <v>0.06687913555627695</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.71796275275112</v>
+        <v>2.913448</v>
       </c>
       <c r="N7">
-        <v>2.71796275275112</v>
+        <v>8.740344</v>
       </c>
       <c r="O7">
-        <v>0.1449060150351582</v>
+        <v>0.1437298739846127</v>
       </c>
       <c r="P7">
-        <v>0.1449060150351582</v>
+        <v>0.1437298739846127</v>
       </c>
       <c r="Q7">
-        <v>2.658666680360222</v>
+        <v>3.501272066525333</v>
       </c>
       <c r="R7">
-        <v>2.658666680360222</v>
+        <v>31.511448598728</v>
       </c>
       <c r="S7">
-        <v>0.008547475588747411</v>
+        <v>0.009612529725703516</v>
       </c>
       <c r="T7">
-        <v>0.008547475588747411</v>
+        <v>0.009612529725703515</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.93443052231891</v>
+        <v>2.934702666666666</v>
       </c>
       <c r="H8">
-        <v>2.93443052231891</v>
+        <v>8.804107999999999</v>
       </c>
       <c r="I8">
-        <v>0.1769517634615948</v>
+        <v>0.1633187960858879</v>
       </c>
       <c r="J8">
-        <v>0.1769517634615948</v>
+        <v>0.1633187960858879</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.69659256010436</v>
+        <v>3.084366333333334</v>
       </c>
       <c r="N8">
-        <v>2.69659256010436</v>
+        <v>9.253099000000001</v>
       </c>
       <c r="O8">
-        <v>0.1437666802691312</v>
+        <v>0.1521618317582404</v>
       </c>
       <c r="P8">
-        <v>0.1437666802691312</v>
+        <v>0.1521618317582404</v>
       </c>
       <c r="Q8">
-        <v>7.912963514628324</v>
+        <v>9.051698103410223</v>
       </c>
       <c r="R8">
-        <v>7.912963514628324</v>
+        <v>81.465282930692</v>
       </c>
       <c r="S8">
-        <v>0.02543976760064204</v>
+        <v>0.02485088717297924</v>
       </c>
       <c r="T8">
-        <v>0.02543976760064204</v>
+        <v>0.02485088717297923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.93443052231891</v>
+        <v>2.934702666666666</v>
       </c>
       <c r="H9">
-        <v>2.93443052231891</v>
+        <v>8.804107999999999</v>
       </c>
       <c r="I9">
-        <v>0.1769517634615948</v>
+        <v>0.1633187960858879</v>
       </c>
       <c r="J9">
-        <v>0.1769517634615948</v>
+        <v>0.1633187960858879</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.90573606277338</v>
+        <v>5.166526</v>
       </c>
       <c r="N9">
-        <v>4.90573606277338</v>
+        <v>15.499578</v>
       </c>
       <c r="O9">
-        <v>0.2615454030601465</v>
+        <v>0.2548815461673676</v>
       </c>
       <c r="P9">
-        <v>0.2615454030601465</v>
+        <v>0.2548815461673676</v>
       </c>
       <c r="Q9">
-        <v>14.3955416370428</v>
+        <v>15.16221762960267</v>
       </c>
       <c r="R9">
-        <v>14.3955416370428</v>
+        <v>136.459958666424</v>
       </c>
       <c r="S9">
-        <v>0.04628092029676652</v>
+        <v>0.04162694726456414</v>
       </c>
       <c r="T9">
-        <v>0.04628092029676652</v>
+        <v>0.04162694726456413</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.93443052231891</v>
+        <v>2.934702666666666</v>
       </c>
       <c r="H10">
-        <v>2.93443052231891</v>
+        <v>8.804107999999999</v>
       </c>
       <c r="I10">
-        <v>0.1769517634615948</v>
+        <v>0.1633187960858879</v>
       </c>
       <c r="J10">
-        <v>0.1769517634615948</v>
+        <v>0.1633187960858879</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.49334980836193</v>
+        <v>5.102146666666667</v>
       </c>
       <c r="N10">
-        <v>4.49334980836193</v>
+        <v>15.30644</v>
       </c>
       <c r="O10">
-        <v>0.2395593590197887</v>
+        <v>0.2517055040800493</v>
       </c>
       <c r="P10">
-        <v>0.2395593590197887</v>
+        <v>0.2517055040800494</v>
       </c>
       <c r="Q10">
-        <v>13.18542282511307</v>
+        <v>14.97328342839111</v>
       </c>
       <c r="R10">
-        <v>13.18542282511307</v>
+        <v>134.75955085552</v>
       </c>
       <c r="S10">
-        <v>0.04239045103228093</v>
+        <v>0.0411082398945452</v>
       </c>
       <c r="T10">
-        <v>0.04239045103228093</v>
+        <v>0.0411082398945452</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.93443052231891</v>
+        <v>2.934702666666666</v>
       </c>
       <c r="H11">
-        <v>2.93443052231891</v>
+        <v>8.804107999999999</v>
       </c>
       <c r="I11">
-        <v>0.1769517634615948</v>
+        <v>0.1633187960858879</v>
       </c>
       <c r="J11">
-        <v>0.1769517634615948</v>
+        <v>0.1633187960858879</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.47183688370229</v>
+        <v>3.506213666666667</v>
       </c>
       <c r="N11">
-        <v>3.47183688370229</v>
+        <v>10.518641</v>
       </c>
       <c r="O11">
-        <v>0.1850982126815952</v>
+        <v>0.1729729339508125</v>
       </c>
       <c r="P11">
-        <v>0.1850982126815952</v>
+        <v>0.1729729339508125</v>
       </c>
       <c r="Q11">
-        <v>10.18786412004857</v>
+        <v>10.28969459746978</v>
       </c>
       <c r="R11">
-        <v>10.18786412004857</v>
+        <v>92.607251377228</v>
       </c>
       <c r="S11">
-        <v>0.0327534551475976</v>
+        <v>0.0282497313282905</v>
       </c>
       <c r="T11">
-        <v>0.0327534551475976</v>
+        <v>0.0282497313282905</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.93443052231891</v>
+        <v>2.934702666666666</v>
       </c>
       <c r="H12">
-        <v>2.93443052231891</v>
+        <v>8.804107999999999</v>
       </c>
       <c r="I12">
-        <v>0.1769517634615948</v>
+        <v>0.1633187960858879</v>
       </c>
       <c r="J12">
-        <v>0.1769517634615948</v>
+        <v>0.1633187960858879</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.471250230243123</v>
+        <v>0.4976016666666667</v>
       </c>
       <c r="N12">
-        <v>0.471250230243123</v>
+        <v>1.492805</v>
       </c>
       <c r="O12">
-        <v>0.02512432993418018</v>
+        <v>0.02454831005891756</v>
       </c>
       <c r="P12">
-        <v>0.02512432993418018</v>
+        <v>0.02454831005891756</v>
       </c>
       <c r="Q12">
-        <v>1.382851059275234</v>
+        <v>1.460312938104444</v>
       </c>
       <c r="R12">
-        <v>1.382851059275234</v>
+        <v>13.14281644294</v>
       </c>
       <c r="S12">
-        <v>0.004445794487644118</v>
+        <v>0.004009200444765507</v>
       </c>
       <c r="T12">
-        <v>0.004445794487644118</v>
+        <v>0.004009200444765506</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.93443052231891</v>
+        <v>2.934702666666666</v>
       </c>
       <c r="H13">
-        <v>2.93443052231891</v>
+        <v>8.804107999999999</v>
       </c>
       <c r="I13">
-        <v>0.1769517634615948</v>
+        <v>0.1633187960858879</v>
       </c>
       <c r="J13">
-        <v>0.1769517634615948</v>
+        <v>0.1633187960858879</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.71796275275112</v>
+        <v>2.913448</v>
       </c>
       <c r="N13">
-        <v>2.71796275275112</v>
+        <v>8.740344</v>
       </c>
       <c r="O13">
-        <v>0.1449060150351582</v>
+        <v>0.1437298739846127</v>
       </c>
       <c r="P13">
-        <v>0.1449060150351582</v>
+        <v>0.1437298739846127</v>
       </c>
       <c r="Q13">
-        <v>7.975672860198812</v>
+        <v>8.550103614794667</v>
       </c>
       <c r="R13">
-        <v>7.975672860198812</v>
+        <v>76.950932533152</v>
       </c>
       <c r="S13">
-        <v>0.02564137489666361</v>
+        <v>0.02347378998074332</v>
       </c>
       <c r="T13">
-        <v>0.02564137489666361</v>
+        <v>0.02347378998074332</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.40264478683936</v>
+        <v>2.914158333333333</v>
       </c>
       <c r="H14">
-        <v>2.40264478683936</v>
+        <v>8.742475000000001</v>
       </c>
       <c r="I14">
-        <v>0.144884068226996</v>
+        <v>0.1621754857858369</v>
       </c>
       <c r="J14">
-        <v>0.144884068226996</v>
+        <v>0.1621754857858369</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.69659256010436</v>
+        <v>3.084366333333334</v>
       </c>
       <c r="N14">
-        <v>2.69659256010436</v>
+        <v>9.253099000000001</v>
       </c>
       <c r="O14">
-        <v>0.1437666802691312</v>
+        <v>0.1521618317582404</v>
       </c>
       <c r="P14">
-        <v>0.1437666802691312</v>
+        <v>0.1521618317582404</v>
       </c>
       <c r="Q14">
-        <v>6.478954056764544</v>
+        <v>8.988331853336112</v>
       </c>
       <c r="R14">
-        <v>6.478954056764544</v>
+        <v>80.89498668002501</v>
       </c>
       <c r="S14">
-        <v>0.02082950151288152</v>
+        <v>0.02467691898345541</v>
       </c>
       <c r="T14">
-        <v>0.02082950151288152</v>
+        <v>0.02467691898345541</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.40264478683936</v>
+        <v>2.914158333333333</v>
       </c>
       <c r="H15">
-        <v>2.40264478683936</v>
+        <v>8.742475000000001</v>
       </c>
       <c r="I15">
-        <v>0.144884068226996</v>
+        <v>0.1621754857858369</v>
       </c>
       <c r="J15">
-        <v>0.144884068226996</v>
+        <v>0.1621754857858369</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.90573606277338</v>
+        <v>5.166526</v>
       </c>
       <c r="N15">
-        <v>4.90573606277338</v>
+        <v>15.499578</v>
       </c>
       <c r="O15">
-        <v>0.2615454030601465</v>
+        <v>0.2548815461673676</v>
       </c>
       <c r="P15">
-        <v>0.2615454030601465</v>
+        <v>0.2548815461673676</v>
       </c>
       <c r="Q15">
-        <v>11.78674117683231</v>
+        <v>15.05607479728334</v>
       </c>
       <c r="R15">
-        <v>11.78674117683231</v>
+        <v>135.50467317555</v>
       </c>
       <c r="S15">
-        <v>0.03789376202142342</v>
+        <v>0.04133553856753806</v>
       </c>
       <c r="T15">
-        <v>0.03789376202142342</v>
+        <v>0.04133553856753806</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.40264478683936</v>
+        <v>2.914158333333333</v>
       </c>
       <c r="H16">
-        <v>2.40264478683936</v>
+        <v>8.742475000000001</v>
       </c>
       <c r="I16">
-        <v>0.144884068226996</v>
+        <v>0.1621754857858369</v>
       </c>
       <c r="J16">
-        <v>0.144884068226996</v>
+        <v>0.1621754857858369</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.49334980836193</v>
+        <v>5.102146666666667</v>
       </c>
       <c r="N16">
-        <v>4.49334980836193</v>
+        <v>15.30644</v>
       </c>
       <c r="O16">
-        <v>0.2395593590197887</v>
+        <v>0.2517055040800493</v>
       </c>
       <c r="P16">
-        <v>0.2395593590197887</v>
+        <v>0.2517055040800494</v>
       </c>
       <c r="Q16">
-        <v>10.79592349250643</v>
+        <v>14.86846322655556</v>
       </c>
       <c r="R16">
-        <v>10.79592349250643</v>
+        <v>133.816169039</v>
       </c>
       <c r="S16">
-        <v>0.03470833451663849</v>
+        <v>0.04082046239915094</v>
       </c>
       <c r="T16">
-        <v>0.03470833451663849</v>
+        <v>0.04082046239915096</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.40264478683936</v>
+        <v>2.914158333333333</v>
       </c>
       <c r="H17">
-        <v>2.40264478683936</v>
+        <v>8.742475000000001</v>
       </c>
       <c r="I17">
-        <v>0.144884068226996</v>
+        <v>0.1621754857858369</v>
       </c>
       <c r="J17">
-        <v>0.144884068226996</v>
+        <v>0.1621754857858369</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.47183688370229</v>
+        <v>3.506213666666667</v>
       </c>
       <c r="N17">
-        <v>3.47183688370229</v>
+        <v>10.518641</v>
       </c>
       <c r="O17">
-        <v>0.1850982126815952</v>
+        <v>0.1729729339508125</v>
       </c>
       <c r="P17">
-        <v>0.1850982126815952</v>
+        <v>0.1729729339508125</v>
       </c>
       <c r="Q17">
-        <v>8.341590789383917</v>
+        <v>10.21766177516389</v>
       </c>
       <c r="R17">
-        <v>8.341590789383917</v>
+        <v>91.95895597647501</v>
       </c>
       <c r="S17">
-        <v>0.02681778207485525</v>
+        <v>0.02805196959127449</v>
       </c>
       <c r="T17">
-        <v>0.02681778207485525</v>
+        <v>0.02805196959127449</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.40264478683936</v>
+        <v>2.914158333333333</v>
       </c>
       <c r="H18">
-        <v>2.40264478683936</v>
+        <v>8.742475000000001</v>
       </c>
       <c r="I18">
-        <v>0.144884068226996</v>
+        <v>0.1621754857858369</v>
       </c>
       <c r="J18">
-        <v>0.144884068226996</v>
+        <v>0.1621754857858369</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.471250230243123</v>
+        <v>0.4976016666666667</v>
       </c>
       <c r="N18">
-        <v>0.471250230243123</v>
+        <v>1.492805</v>
       </c>
       <c r="O18">
-        <v>0.02512432993418018</v>
+        <v>0.02454831005891756</v>
       </c>
       <c r="P18">
-        <v>0.02512432993418018</v>
+        <v>0.02454831005891756</v>
       </c>
       <c r="Q18">
-        <v>1.132246908990488</v>
+        <v>1.450090043597222</v>
       </c>
       <c r="R18">
-        <v>1.132246908990488</v>
+        <v>13.050810392375</v>
       </c>
       <c r="S18">
-        <v>0.003640115132341318</v>
+        <v>0.0039811341090263</v>
       </c>
       <c r="T18">
-        <v>0.003640115132341318</v>
+        <v>0.0039811341090263</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.40264478683936</v>
+        <v>2.914158333333333</v>
       </c>
       <c r="H19">
-        <v>2.40264478683936</v>
+        <v>8.742475000000001</v>
       </c>
       <c r="I19">
-        <v>0.144884068226996</v>
+        <v>0.1621754857858369</v>
       </c>
       <c r="J19">
-        <v>0.144884068226996</v>
+        <v>0.1621754857858369</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.71796275275112</v>
+        <v>2.913448</v>
       </c>
       <c r="N19">
-        <v>2.71796275275112</v>
+        <v>8.740344</v>
       </c>
       <c r="O19">
-        <v>0.1449060150351582</v>
+        <v>0.1437298739846127</v>
       </c>
       <c r="P19">
-        <v>0.1449060150351582</v>
+        <v>0.1437298739846127</v>
       </c>
       <c r="Q19">
-        <v>6.530299038721035</v>
+        <v>8.490248767933334</v>
       </c>
       <c r="R19">
-        <v>6.530299038721035</v>
+        <v>76.41223891140001</v>
       </c>
       <c r="S19">
-        <v>0.02099457296885596</v>
+        <v>0.02330946213539168</v>
       </c>
       <c r="T19">
-        <v>0.02099457296885596</v>
+        <v>0.02330946213539168</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.59245275903687</v>
+        <v>4.688885666666667</v>
       </c>
       <c r="H20">
-        <v>4.59245275903687</v>
+        <v>14.066657</v>
       </c>
       <c r="I20">
-        <v>0.2769336701430765</v>
+        <v>0.2609406297824979</v>
       </c>
       <c r="J20">
-        <v>0.2769336701430765</v>
+        <v>0.2609406297824978</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.69659256010436</v>
+        <v>3.084366333333334</v>
       </c>
       <c r="N20">
-        <v>2.69659256010436</v>
+        <v>9.253099000000001</v>
       </c>
       <c r="O20">
-        <v>0.1437666802691312</v>
+        <v>0.1521618317582404</v>
       </c>
       <c r="P20">
-        <v>0.1437666802691312</v>
+        <v>0.1521618317582404</v>
       </c>
       <c r="Q20">
-        <v>12.38397394264956</v>
+        <v>14.46224109111589</v>
       </c>
       <c r="R20">
-        <v>12.38397394264956</v>
+        <v>130.160169820043</v>
       </c>
       <c r="S20">
-        <v>0.03981383441121673</v>
+        <v>0.03970520420785373</v>
       </c>
       <c r="T20">
-        <v>0.03981383441121673</v>
+        <v>0.03970520420785371</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.59245275903687</v>
+        <v>4.688885666666667</v>
       </c>
       <c r="H21">
-        <v>4.59245275903687</v>
+        <v>14.066657</v>
       </c>
       <c r="I21">
-        <v>0.2769336701430765</v>
+        <v>0.2609406297824979</v>
       </c>
       <c r="J21">
-        <v>0.2769336701430765</v>
+        <v>0.2609406297824978</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.90573606277338</v>
+        <v>5.166526</v>
       </c>
       <c r="N21">
-        <v>4.90573606277338</v>
+        <v>15.499578</v>
       </c>
       <c r="O21">
-        <v>0.2615454030601465</v>
+        <v>0.2548815461673676</v>
       </c>
       <c r="P21">
-        <v>0.2615454030601465</v>
+        <v>0.2548815461673676</v>
       </c>
       <c r="Q21">
-        <v>22.52936111659028</v>
+        <v>24.22524970786067</v>
       </c>
       <c r="R21">
-        <v>22.52936111659028</v>
+        <v>218.027247370746</v>
       </c>
       <c r="S21">
-        <v>0.07243072837849661</v>
+        <v>0.06650895117684973</v>
       </c>
       <c r="T21">
-        <v>0.07243072837849661</v>
+        <v>0.06650895117684968</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.59245275903687</v>
+        <v>4.688885666666667</v>
       </c>
       <c r="H22">
-        <v>4.59245275903687</v>
+        <v>14.066657</v>
       </c>
       <c r="I22">
-        <v>0.2769336701430765</v>
+        <v>0.2609406297824979</v>
       </c>
       <c r="J22">
-        <v>0.2769336701430765</v>
+        <v>0.2609406297824978</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.49334980836193</v>
+        <v>5.102146666666667</v>
       </c>
       <c r="N22">
-        <v>4.49334980836193</v>
+        <v>15.30644</v>
       </c>
       <c r="O22">
-        <v>0.2395593590197887</v>
+        <v>0.2517055040800493</v>
       </c>
       <c r="P22">
-        <v>0.2395593590197887</v>
+        <v>0.2517055040800494</v>
       </c>
       <c r="Q22">
-        <v>20.63549672472953</v>
+        <v>23.92338237456445</v>
       </c>
       <c r="R22">
-        <v>20.63549672472953</v>
+        <v>215.31044137108</v>
       </c>
       <c r="S22">
-        <v>0.06634205251047301</v>
+        <v>0.06568019275436916</v>
       </c>
       <c r="T22">
-        <v>0.06634205251047301</v>
+        <v>0.06568019275436915</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.59245275903687</v>
+        <v>4.688885666666667</v>
       </c>
       <c r="H23">
-        <v>4.59245275903687</v>
+        <v>14.066657</v>
       </c>
       <c r="I23">
-        <v>0.2769336701430765</v>
+        <v>0.2609406297824979</v>
       </c>
       <c r="J23">
-        <v>0.2769336701430765</v>
+        <v>0.2609406297824978</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.47183688370229</v>
+        <v>3.506213666666667</v>
       </c>
       <c r="N23">
-        <v>3.47183688370229</v>
+        <v>10.518641</v>
       </c>
       <c r="O23">
-        <v>0.1850982126815952</v>
+        <v>0.1729729339508125</v>
       </c>
       <c r="P23">
-        <v>0.1850982126815952</v>
+        <v>0.1729729339508125</v>
       </c>
       <c r="Q23">
-        <v>15.94424687548455</v>
+        <v>16.44023500590411</v>
       </c>
       <c r="R23">
-        <v>15.94424687548455</v>
+        <v>147.962115053137</v>
       </c>
       <c r="S23">
-        <v>0.0512599273748379</v>
+        <v>0.04513566632045142</v>
       </c>
       <c r="T23">
-        <v>0.0512599273748379</v>
+        <v>0.0451356663204514</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.59245275903687</v>
+        <v>4.688885666666667</v>
       </c>
       <c r="H24">
-        <v>4.59245275903687</v>
+        <v>14.066657</v>
       </c>
       <c r="I24">
-        <v>0.2769336701430765</v>
+        <v>0.2609406297824979</v>
       </c>
       <c r="J24">
-        <v>0.2769336701430765</v>
+        <v>0.2609406297824978</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.471250230243123</v>
+        <v>0.4976016666666667</v>
       </c>
       <c r="N24">
-        <v>0.471250230243123</v>
+        <v>1.492805</v>
       </c>
       <c r="O24">
-        <v>0.02512432993418018</v>
+        <v>0.02454831005891756</v>
       </c>
       <c r="P24">
-        <v>0.02512432993418018</v>
+        <v>0.02454831005891756</v>
       </c>
       <c r="Q24">
-        <v>2.16419442007679</v>
+        <v>2.333197322542778</v>
       </c>
       <c r="R24">
-        <v>2.16419442007679</v>
+        <v>20.998775902885</v>
       </c>
       <c r="S24">
-        <v>0.006957772898558078</v>
+        <v>0.006405651486869974</v>
       </c>
       <c r="T24">
-        <v>0.006957772898558078</v>
+        <v>0.006405651486869971</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.59245275903687</v>
+        <v>4.688885666666667</v>
       </c>
       <c r="H25">
-        <v>4.59245275903687</v>
+        <v>14.066657</v>
       </c>
       <c r="I25">
-        <v>0.2769336701430765</v>
+        <v>0.2609406297824979</v>
       </c>
       <c r="J25">
-        <v>0.2769336701430765</v>
+        <v>0.2609406297824978</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.71796275275112</v>
+        <v>2.913448</v>
       </c>
       <c r="N25">
-        <v>2.71796275275112</v>
+        <v>8.740344</v>
       </c>
       <c r="O25">
-        <v>0.1449060150351582</v>
+        <v>0.1437298739846127</v>
       </c>
       <c r="P25">
-        <v>0.1449060150351582</v>
+        <v>0.1437298739846127</v>
       </c>
       <c r="Q25">
-        <v>12.48211554283133</v>
+        <v>13.66082456777867</v>
       </c>
       <c r="R25">
-        <v>12.48211554283133</v>
+        <v>122.947421110008</v>
       </c>
       <c r="S25">
-        <v>0.04012935456949418</v>
+        <v>0.03750496383610389</v>
       </c>
       <c r="T25">
-        <v>0.04012935456949418</v>
+        <v>0.03750496383610388</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.43885976039067</v>
+        <v>3.555121333333333</v>
       </c>
       <c r="H26">
-        <v>3.43885976039067</v>
+        <v>10.665364</v>
       </c>
       <c r="I26">
-        <v>0.2073698096683422</v>
+        <v>0.1978456429995826</v>
       </c>
       <c r="J26">
-        <v>0.2073698096683422</v>
+        <v>0.1978456429995826</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.69659256010436</v>
+        <v>3.084366333333334</v>
       </c>
       <c r="N26">
-        <v>2.69659256010436</v>
+        <v>9.253099000000001</v>
       </c>
       <c r="O26">
-        <v>0.1437666802691312</v>
+        <v>0.1521618317582404</v>
       </c>
       <c r="P26">
-        <v>0.1437666802691312</v>
+        <v>0.1521618317582404</v>
       </c>
       <c r="Q26">
-        <v>9.273203645111742</v>
+        <v>10.96529655144844</v>
       </c>
       <c r="R26">
-        <v>9.273203645111742</v>
+        <v>98.68766896303599</v>
       </c>
       <c r="S26">
-        <v>0.02981286912405915</v>
+        <v>0.03010455544420338</v>
       </c>
       <c r="T26">
-        <v>0.02981286912405915</v>
+        <v>0.03010455544420337</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.43885976039067</v>
+        <v>3.555121333333333</v>
       </c>
       <c r="H27">
-        <v>3.43885976039067</v>
+        <v>10.665364</v>
       </c>
       <c r="I27">
-        <v>0.2073698096683422</v>
+        <v>0.1978456429995826</v>
       </c>
       <c r="J27">
-        <v>0.2073698096683422</v>
+        <v>0.1978456429995826</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.90573606277338</v>
+        <v>5.166526</v>
       </c>
       <c r="N27">
-        <v>4.90573606277338</v>
+        <v>15.499578</v>
       </c>
       <c r="O27">
-        <v>0.2615454030601465</v>
+        <v>0.2548815461673676</v>
       </c>
       <c r="P27">
-        <v>0.2615454030601465</v>
+        <v>0.2548815461673676</v>
       </c>
       <c r="Q27">
-        <v>16.87013834136874</v>
+        <v>18.36762680182133</v>
       </c>
       <c r="R27">
-        <v>16.87013834136874</v>
+        <v>165.308641216392</v>
       </c>
       <c r="S27">
-        <v>0.05423662045221243</v>
+        <v>0.05042720339021065</v>
       </c>
       <c r="T27">
-        <v>0.05423662045221243</v>
+        <v>0.05042720339021065</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.43885976039067</v>
+        <v>3.555121333333333</v>
       </c>
       <c r="H28">
-        <v>3.43885976039067</v>
+        <v>10.665364</v>
       </c>
       <c r="I28">
-        <v>0.2073698096683422</v>
+        <v>0.1978456429995826</v>
       </c>
       <c r="J28">
-        <v>0.2073698096683422</v>
+        <v>0.1978456429995826</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.49334980836193</v>
+        <v>5.102146666666667</v>
       </c>
       <c r="N28">
-        <v>4.49334980836193</v>
+        <v>15.30644</v>
       </c>
       <c r="O28">
-        <v>0.2395593590197887</v>
+        <v>0.2517055040800493</v>
       </c>
       <c r="P28">
-        <v>0.2395593590197887</v>
+        <v>0.2517055040800494</v>
       </c>
       <c r="Q28">
-        <v>15.45199984533497</v>
+        <v>18.13875046046222</v>
       </c>
       <c r="R28">
-        <v>15.45199984533497</v>
+        <v>163.24875414416</v>
       </c>
       <c r="S28">
-        <v>0.04967737868420365</v>
+        <v>0.04979883730125143</v>
       </c>
       <c r="T28">
-        <v>0.04967737868420365</v>
+        <v>0.04979883730125143</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.43885976039067</v>
+        <v>3.555121333333333</v>
       </c>
       <c r="H29">
-        <v>3.43885976039067</v>
+        <v>10.665364</v>
       </c>
       <c r="I29">
-        <v>0.2073698096683422</v>
+        <v>0.1978456429995826</v>
       </c>
       <c r="J29">
-        <v>0.2073698096683422</v>
+        <v>0.1978456429995826</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.47183688370229</v>
+        <v>3.506213666666667</v>
       </c>
       <c r="N29">
-        <v>3.47183688370229</v>
+        <v>10.518641</v>
       </c>
       <c r="O29">
-        <v>0.1850982126815952</v>
+        <v>0.1729729339508125</v>
       </c>
       <c r="P29">
-        <v>0.1850982126815952</v>
+        <v>0.1729729339508125</v>
       </c>
       <c r="Q29">
-        <v>11.93916015400395</v>
+        <v>12.46501500559155</v>
       </c>
       <c r="R29">
-        <v>11.93916015400395</v>
+        <v>112.185135050324</v>
       </c>
       <c r="S29">
-        <v>0.03838378113373273</v>
+        <v>0.03422194133902283</v>
       </c>
       <c r="T29">
-        <v>0.03838378113373273</v>
+        <v>0.03422194133902283</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.43885976039067</v>
+        <v>3.555121333333333</v>
       </c>
       <c r="H30">
-        <v>3.43885976039067</v>
+        <v>10.665364</v>
       </c>
       <c r="I30">
-        <v>0.2073698096683422</v>
+        <v>0.1978456429995826</v>
       </c>
       <c r="J30">
-        <v>0.2073698096683422</v>
+        <v>0.1978456429995826</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.471250230243123</v>
+        <v>0.4976016666666667</v>
       </c>
       <c r="N30">
-        <v>0.471250230243123</v>
+        <v>1.492805</v>
       </c>
       <c r="O30">
-        <v>0.02512432993418018</v>
+        <v>0.02454831005891756</v>
       </c>
       <c r="P30">
-        <v>0.02512432993418018</v>
+        <v>0.02454831005891756</v>
       </c>
       <c r="Q30">
-        <v>1.620563453857914</v>
+        <v>1.769034300668889</v>
       </c>
       <c r="R30">
-        <v>1.620563453857914</v>
+        <v>15.92130870602</v>
       </c>
       <c r="S30">
-        <v>0.005210027516495578</v>
+        <v>0.004856776188159666</v>
       </c>
       <c r="T30">
-        <v>0.005210027516495578</v>
+        <v>0.004856776188159665</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.43885976039067</v>
+        <v>3.555121333333333</v>
       </c>
       <c r="H31">
-        <v>3.43885976039067</v>
+        <v>10.665364</v>
       </c>
       <c r="I31">
-        <v>0.2073698096683422</v>
+        <v>0.1978456429995826</v>
       </c>
       <c r="J31">
-        <v>0.2073698096683422</v>
+        <v>0.1978456429995826</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.71796275275112</v>
+        <v>2.913448</v>
       </c>
       <c r="N31">
-        <v>2.71796275275112</v>
+        <v>8.740344</v>
       </c>
       <c r="O31">
-        <v>0.1449060150351582</v>
+        <v>0.1437298739846127</v>
       </c>
       <c r="P31">
-        <v>0.1449060150351582</v>
+        <v>0.1437298739846127</v>
       </c>
       <c r="Q31">
-        <v>9.346692740676483</v>
+        <v>10.35766113835733</v>
       </c>
       <c r="R31">
-        <v>9.346692740676483</v>
+        <v>93.21895024521599</v>
       </c>
       <c r="S31">
-        <v>0.03004913275763869</v>
+        <v>0.02843632933673468</v>
       </c>
       <c r="T31">
-        <v>0.03004913275763869</v>
+        <v>0.02843632933673467</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.23665136073002</v>
+        <v>2.674536333333334</v>
       </c>
       <c r="H32">
-        <v>2.23665136073002</v>
+        <v>8.023609</v>
       </c>
       <c r="I32">
-        <v>0.1348743476867843</v>
+        <v>0.148840309789918</v>
       </c>
       <c r="J32">
-        <v>0.1348743476867843</v>
+        <v>0.1488403097899179</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.69659256010436</v>
+        <v>3.084366333333334</v>
       </c>
       <c r="N32">
-        <v>2.69659256010436</v>
+        <v>9.253099000000001</v>
       </c>
       <c r="O32">
-        <v>0.1437666802691312</v>
+        <v>0.1521618317582404</v>
       </c>
       <c r="P32">
-        <v>0.1437666802691312</v>
+        <v>0.1521618317582404</v>
       </c>
       <c r="Q32">
-        <v>6.031337418891865</v>
+        <v>8.249249823810112</v>
       </c>
       <c r="R32">
-        <v>6.031337418891865</v>
+        <v>74.243248414291</v>
       </c>
       <c r="S32">
-        <v>0.01939043722039355</v>
+        <v>0.02264781417709787</v>
       </c>
       <c r="T32">
-        <v>0.01939043722039355</v>
+        <v>0.02264781417709786</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.23665136073002</v>
+        <v>2.674536333333334</v>
       </c>
       <c r="H33">
-        <v>2.23665136073002</v>
+        <v>8.023609</v>
       </c>
       <c r="I33">
-        <v>0.1348743476867843</v>
+        <v>0.148840309789918</v>
       </c>
       <c r="J33">
-        <v>0.1348743476867843</v>
+        <v>0.1488403097899179</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>4.90573606277338</v>
+        <v>5.166526</v>
       </c>
       <c r="N33">
-        <v>4.90573606277338</v>
+        <v>15.499578</v>
       </c>
       <c r="O33">
-        <v>0.2615454030601465</v>
+        <v>0.2548815461673676</v>
       </c>
       <c r="P33">
-        <v>0.2615454030601465</v>
+        <v>0.2548815461673676</v>
       </c>
       <c r="Q33">
-        <v>10.97242124018441</v>
+        <v>13.81806150411134</v>
       </c>
       <c r="R33">
-        <v>10.97242124018441</v>
+        <v>124.362553537002</v>
       </c>
       <c r="S33">
-        <v>0.03527576562821433</v>
+        <v>0.03793664829128428</v>
       </c>
       <c r="T33">
-        <v>0.03527576562821433</v>
+        <v>0.03793664829128426</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.23665136073002</v>
+        <v>2.674536333333334</v>
       </c>
       <c r="H34">
-        <v>2.23665136073002</v>
+        <v>8.023609</v>
       </c>
       <c r="I34">
-        <v>0.1348743476867843</v>
+        <v>0.148840309789918</v>
       </c>
       <c r="J34">
-        <v>0.1348743476867843</v>
+        <v>0.1488403097899179</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.49334980836193</v>
+        <v>5.102146666666667</v>
       </c>
       <c r="N34">
-        <v>4.49334980836193</v>
+        <v>15.30644</v>
       </c>
       <c r="O34">
-        <v>0.2395593590197887</v>
+        <v>0.2517055040800493</v>
       </c>
       <c r="P34">
-        <v>0.2395593590197887</v>
+        <v>0.2517055040800494</v>
       </c>
       <c r="Q34">
-        <v>10.05005696310868</v>
+        <v>13.64587663799556</v>
       </c>
       <c r="R34">
-        <v>10.05005696310868</v>
+        <v>122.81288974196</v>
       </c>
       <c r="S34">
-        <v>0.03231041228005817</v>
+        <v>0.037463925203102</v>
       </c>
       <c r="T34">
-        <v>0.03231041228005817</v>
+        <v>0.037463925203102</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.23665136073002</v>
+        <v>2.674536333333334</v>
       </c>
       <c r="H35">
-        <v>2.23665136073002</v>
+        <v>8.023609</v>
       </c>
       <c r="I35">
-        <v>0.1348743476867843</v>
+        <v>0.148840309789918</v>
       </c>
       <c r="J35">
-        <v>0.1348743476867843</v>
+        <v>0.1488403097899179</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.47183688370229</v>
+        <v>3.506213666666667</v>
       </c>
       <c r="N35">
-        <v>3.47183688370229</v>
+        <v>10.518641</v>
       </c>
       <c r="O35">
-        <v>0.1850982126815952</v>
+        <v>0.1729729339508125</v>
       </c>
       <c r="P35">
-        <v>0.1850982126815952</v>
+        <v>0.1729729339508125</v>
       </c>
       <c r="Q35">
-        <v>7.765288690165399</v>
+        <v>9.377495843929891</v>
       </c>
       <c r="R35">
-        <v>7.765288690165399</v>
+        <v>84.39746259536901</v>
       </c>
       <c r="S35">
-        <v>0.02496500069341981</v>
+        <v>0.02574534507450995</v>
       </c>
       <c r="T35">
-        <v>0.02496500069341981</v>
+        <v>0.02574534507450994</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.23665136073002</v>
+        <v>2.674536333333334</v>
       </c>
       <c r="H36">
-        <v>2.23665136073002</v>
+        <v>8.023609</v>
       </c>
       <c r="I36">
-        <v>0.1348743476867843</v>
+        <v>0.148840309789918</v>
       </c>
       <c r="J36">
-        <v>0.1348743476867843</v>
+        <v>0.1488403097899179</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.471250230243123</v>
+        <v>0.4976016666666667</v>
       </c>
       <c r="N36">
-        <v>0.471250230243123</v>
+        <v>1.492805</v>
       </c>
       <c r="O36">
-        <v>0.02512432993418018</v>
+        <v>0.02454831005891756</v>
       </c>
       <c r="P36">
-        <v>0.02512432993418018</v>
+        <v>0.02454831005891756</v>
       </c>
       <c r="Q36">
-        <v>1.054022468717616</v>
+        <v>1.330853737027222</v>
       </c>
       <c r="R36">
-        <v>1.054022468717616</v>
+        <v>11.977683633245</v>
       </c>
       <c r="S36">
-        <v>0.0033886276109401</v>
+        <v>0.003653778073988248</v>
       </c>
       <c r="T36">
-        <v>0.0033886276109401</v>
+        <v>0.003653778073988247</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.23665136073002</v>
+        <v>2.674536333333334</v>
       </c>
       <c r="H37">
-        <v>2.23665136073002</v>
+        <v>8.023609</v>
       </c>
       <c r="I37">
-        <v>0.1348743476867843</v>
+        <v>0.148840309789918</v>
       </c>
       <c r="J37">
-        <v>0.1348743476867843</v>
+        <v>0.1488403097899179</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.71796275275112</v>
+        <v>2.913448</v>
       </c>
       <c r="N37">
-        <v>2.71796275275112</v>
+        <v>8.740344</v>
       </c>
       <c r="O37">
-        <v>0.1449060150351582</v>
+        <v>0.1437298739846127</v>
       </c>
       <c r="P37">
-        <v>0.1449060150351582</v>
+        <v>0.1437298739846127</v>
       </c>
       <c r="Q37">
-        <v>6.079135089354303</v>
+        <v>7.792122531277335</v>
       </c>
       <c r="R37">
-        <v>6.079135089354303</v>
+        <v>70.129102781496</v>
       </c>
       <c r="S37">
-        <v>0.01954410425375831</v>
+        <v>0.02139279896993562</v>
       </c>
       <c r="T37">
-        <v>0.01954410425375831</v>
+        <v>0.02139279896993562</v>
       </c>
     </row>
   </sheetData>
